--- a/medicine/Psychotrope/Lindemans/Lindemans.xlsx
+++ b/medicine/Psychotrope/Lindemans/Lindemans.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Lindemans est une brasserie familiale belge établie à Vlezenbeek, une commune du Brabant flamand. Elle produit des lambics.
@@ -512,9 +524,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La famille Lindemans diversifia en 1822 les activités de son exploitation agricole située à Vlezenbeek dans la région bruxelloise en créant une brasserie de lambic puis de Faro à partir de 1869. Celle-ci se développa au point de quasiment remplacer l'activité agricole en 1920 puis définitivement en 1956. La brasserie produit de la Kriek à partir de 1961. En 1980, 70% de la production est exportée (France, Etats-Unis, Suisse et Allemagne)[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La famille Lindemans diversifia en 1822 les activités de son exploitation agricole située à Vlezenbeek dans la région bruxelloise en créant une brasserie de lambic puis de Faro à partir de 1869. Celle-ci se développa au point de quasiment remplacer l'activité agricole en 1920 puis définitivement en 1956. La brasserie produit de la Kriek à partir de 1961. En 1980, 70% de la production est exportée (France, Etats-Unis, Suisse et Allemagne).
 En 1985, Le spécialiste de la bière Michael Jackson déclare la Kriek Lindemans l'une des 5 meilleures bières du monde.
 </t>
         </is>
